--- a/biology/Zoologie/Créatures_féroces/Créatures_féroces.xlsx
+++ b/biology/Zoologie/Créatures_féroces/Créatures_féroces.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atures_f%C3%A9roces</t>
+          <t>Créatures_féroces</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Créatures féroces (Fierce Creatures) est un film américano-britannique réalisé par Fred Schepisi et Robert Young en 1997.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atures_f%C3%A9roces</t>
+          <t>Créatures_féroces</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la tête d'une puissante multi-nationale, Rod McCain acquiert le zoo de Marwood. Pour cela, il charge Rollo Lee de renflouer les caisses. Celui-ci suit les consignes de son chef, et vise 20 % de bénéfice. Partant du constat que la violence attire le public, il décide de ne garder que les animaux les plus sauvages et dangereux, et d'éliminer tous les autres. Le personnel du zoo entre alors en résistance et tente de faire passer tous les animaux du zoo, même les plus improbables, pour des créatures féroces.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atures_f%C3%A9roces</t>
+          <t>Créatures_féroces</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Fierce Creatures
 Titre français : Créatures féroces
@@ -561,7 +577,7 @@
 Production exécutive : Steve Abbott
 Sociétés de production : Fish Productions, Jersey Films et Universal Pictures
 Distribution :  Universal Pictures •  UIP
-Budget : 25 000 000 $[1]
+Budget : 25 000 000 $
 Format : couleur – 35 mm – 2,35:1 — son DTS, Dolby SR et DTS-Stéréo
 Pays :  Royaume-Uni,  États-Unis
 Genre : comédie
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atures_f%C3%A9roces</t>
+          <t>Créatures_féroces</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>John Cleese (VF : Michel Prudhomme) : Rollo Lee
 Jamie Lee Curtis (VF : Elisabeth Wiener) : Willa Weston
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atures_f%C3%A9roces</t>
+          <t>Créatures_féroces</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +657,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -657,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cr%C3%A9atures_f%C3%A9roces</t>
+          <t>Créatures_féroces</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,11 +697,51 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box-office
-Par rapport à Un poisson nommé Wanda, qui a rapporté 188 593 712 $  de recettes mondiales [2], dont 62 493 712 $ sur le territoire américain[3], Créatures féroces n'a pas rencontré un énorme succès commercial au box-office dès sa sortie en salles, puisqu'il totalise 41 289 260 $ de recettes mondiales [4], dont 9 381 260 $ rien qu'aux États-Unis[5].
-En France, Créatures féroces ne rencontre pas de succès par rapport à Un poisson nommé Wanda et ses 2 212 414 entrées[6], puisqu'il a totalisé seulement 318 610 entrées[7].
-Accueil critique
-Dans l'ensemble des pays anglophones, Créatures féroces a obtenu un accueil critique favorable, recueillant 53 % d'avis positifs sur le site Rotten Tomatoes, basé sur 32 commentaires collectés et une note moyenne de 5,6⁄10[8] et un score de 62⁄100 sur le site Metacritic, basé sur 20 commentaires collectés[9].
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par rapport à Un poisson nommé Wanda, qui a rapporté 188 593 712 $  de recettes mondiales , dont 62 493 712 $ sur le territoire américain, Créatures féroces n'a pas rencontré un énorme succès commercial au box-office dès sa sortie en salles, puisqu'il totalise 41 289 260 $ de recettes mondiales , dont 9 381 260 $ rien qu'aux États-Unis.
+En France, Créatures féroces ne rencontre pas de succès par rapport à Un poisson nommé Wanda et ses 2 212 414 entrées, puisqu'il a totalisé seulement 318 610 entrées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Créatures_féroces</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%A9atures_f%C3%A9roces</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Réception</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'ensemble des pays anglophones, Créatures féroces a obtenu un accueil critique favorable, recueillant 53 % d'avis positifs sur le site Rotten Tomatoes, basé sur 32 commentaires collectés et une note moyenne de 5,6⁄10 et un score de 62⁄100 sur le site Metacritic, basé sur 20 commentaires collectés.
 </t>
         </is>
       </c>
